--- a/crowdfunding.xlsx
+++ b/crowdfunding.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandymo/Desktop/Crowdfunding_ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FCE334-487C-754D-9BF1-E4AEA488EFC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF7AC0C-21D7-6545-AC48-CE1AE39C304F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30440" yWindow="-2020" windowWidth="33260" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6520" yWindow="500" windowWidth="28560" windowHeight="14600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="crowdfunding_info" sheetId="1" r:id="rId1"/>
@@ -9501,7 +9501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -53568,8 +53568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
